--- a/research/ESRS/ESRS_Draft_10_2023.xlsx
+++ b/research/ESRS/ESRS_Draft_10_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainer\PycharmProjects\UASFRA-MS-PROJDIGI\research\ESRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_STUDIUM\PYTHON\UASFRA-MS-PROJDIGI\research\ESRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC95B05-51F2-420B-A7CE-AD7752F24DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F8571F-A24A-48EC-90A4-AB64983C8F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="644" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="644" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontology" sheetId="28" r:id="rId1"/>
@@ -7241,7 +7241,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="638">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -8654,19 +8654,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9536,25 +9542,25 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33.299999999999997"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="614" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="202" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="613" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="611"/>
-    <col min="5" max="5" width="11.42578125" style="610"/>
-    <col min="6" max="6" width="11.42578125" style="615"/>
-    <col min="7" max="7" width="11.42578125" style="616"/>
-    <col min="8" max="8" width="11.42578125" style="617"/>
+    <col min="1" max="1" width="17.578125" style="614" customWidth="1"/>
+    <col min="2" max="2" width="15.83984375" style="202" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="613" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41796875" style="611"/>
+    <col min="5" max="5" width="11.41796875" style="610"/>
+    <col min="6" max="6" width="11.41796875" style="615"/>
+    <col min="7" max="7" width="11.41796875" style="616"/>
+    <col min="8" max="8" width="11.41796875" style="617"/>
     <col min="11" max="11" width="58" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" customWidth="1"/>
-    <col min="15" max="15" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.15625" customWidth="1"/>
+    <col min="15" max="15" width="40.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.26171875" customWidth="1"/>
+    <col min="17" max="17" width="8.83984375" customWidth="1"/>
+    <col min="18" max="18" width="86.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" ht="33.9" thickTop="1" thickBot="1">
       <c r="A1" s="618" t="s">
         <v>1959</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34.5" thickTop="1">
+    <row r="2" spans="1:18" ht="33.6" thickTop="1">
       <c r="A2" s="614" t="s">
         <v>1967</v>
       </c>
@@ -11193,19 +11199,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="141.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="5.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="141.41796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.68359375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="43.7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="43.75" customHeight="1" thickBot="1">
       <c r="A1" s="75" t="s">
         <v>16</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="54" t="s">
         <v>1320</v>
       </c>
@@ -11247,7 +11253,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11266,7 +11272,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11308,7 +11314,7 @@
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11329,7 +11335,7 @@
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11350,7 +11356,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="14.4">
       <c r="A8" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11371,7 +11377,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="14.4">
       <c r="A9" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11392,7 +11398,7 @@
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11413,7 +11419,7 @@
       </c>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11434,7 +11440,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="14.4">
       <c r="A12" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11453,7 +11459,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="34"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.4">
       <c r="A13" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11472,7 +11478,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="14.4">
       <c r="A14" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11491,7 +11497,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="14.4">
       <c r="A15" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11510,7 +11516,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="14.4">
       <c r="A16" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="14.4">
       <c r="A17" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="14.4">
       <c r="A18" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11573,7 +11579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="14.4">
       <c r="A19" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11615,7 +11621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11657,7 +11663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11678,7 +11684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:7" ht="14.7" thickBot="1">
       <c r="A24" s="37" t="s">
         <v>1320</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="14.4">
       <c r="A25" s="28" t="s">
         <v>1320</v>
       </c>
@@ -11718,7 +11724,7 @@
       <c r="F25" s="31"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11737,7 +11743,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11756,7 +11762,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="14.4">
       <c r="A28" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11775,7 +11781,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11794,7 +11800,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11813,7 +11819,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11832,7 +11838,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="33" t="s">
         <v>1320</v>
       </c>
@@ -11851,7 +11857,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="14.4">
       <c r="A33" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="14.4">
       <c r="A34" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="14.4">
       <c r="A35" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11914,7 +11920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="14.4">
       <c r="A36" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="14.4">
       <c r="A37" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11956,7 +11962,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="14.4">
       <c r="A38" s="35" t="s">
         <v>1320</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+    <row r="39" spans="1:7" ht="14.7" thickBot="1">
       <c r="A39" s="37" t="s">
         <v>1320</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="14.4">
       <c r="A40" s="28" t="s">
         <v>1320</v>
       </c>
@@ -12017,7 +12023,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="14.4">
       <c r="A41" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12036,7 +12042,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="14.4">
       <c r="A42" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="14.4">
       <c r="A43" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12078,7 +12084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="14.4">
       <c r="A44" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12099,7 +12105,7 @@
       </c>
       <c r="G44" s="34"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="14.4">
       <c r="A45" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12118,7 +12124,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="14.4">
       <c r="A46" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12137,7 +12143,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="34"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="14.4">
       <c r="A47" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12156,7 +12162,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="34"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
+    <row r="48" spans="1:7" ht="14.7" thickBot="1">
       <c r="A48" s="37" t="s">
         <v>1320</v>
       </c>
@@ -12177,7 +12183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="14.4">
       <c r="A49" s="54" t="s">
         <v>1320</v>
       </c>
@@ -12196,7 +12202,7 @@
       <c r="F49" s="42"/>
       <c r="G49" s="43"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="14.4">
       <c r="A50" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12215,7 +12221,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="34"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14.4">
       <c r="A51" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12234,7 +12240,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="34"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="14.4">
       <c r="A52" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12253,7 +12259,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="34"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="14.4">
       <c r="A53" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12272,7 +12278,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="34"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="14.4">
       <c r="A54" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12291,7 +12297,7 @@
       <c r="F54" s="23"/>
       <c r="G54" s="34"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="14.4">
       <c r="A55" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12310,7 +12316,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="34"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="14.4">
       <c r="A56" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12329,7 +12335,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="34"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="14.4">
       <c r="A57" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12348,7 +12354,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="34"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="14.4">
       <c r="A58" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12367,7 +12373,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="34"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="14.4">
       <c r="A59" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12388,7 +12394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="14.4">
       <c r="A60" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12409,7 +12415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="14.4">
       <c r="A61" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12430,7 +12436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="14.4">
       <c r="A62" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="14.4">
       <c r="A63" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="14.4">
       <c r="A64" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12493,7 +12499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" ht="14.4">
       <c r="A65" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12514,7 +12520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="14.4">
       <c r="A66" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12556,7 +12562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="14.4">
       <c r="A68" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12577,7 +12583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1">
+    <row r="69" spans="1:7" ht="14.7" thickBot="1">
       <c r="A69" s="37" t="s">
         <v>1320</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="14.4">
       <c r="A70" s="54" t="s">
         <v>1320</v>
       </c>
@@ -12617,7 +12623,7 @@
       <c r="F70" s="42"/>
       <c r="G70" s="43"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="14.4">
       <c r="A71" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12636,7 +12642,7 @@
       <c r="F71" s="23"/>
       <c r="G71" s="34"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="14.4">
       <c r="A72" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12655,7 +12661,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="34"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="14.4">
       <c r="A73" s="33" t="s">
         <v>1320</v>
       </c>
@@ -12674,7 +12680,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="34"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" ht="14.4">
       <c r="A74" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12695,7 +12701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" ht="14.4">
       <c r="A75" s="35" t="s">
         <v>1320</v>
       </c>
@@ -12716,7 +12722,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1">
+    <row r="76" spans="1:7" ht="14.7" thickBot="1">
       <c r="A76" s="37" t="s">
         <v>1320</v>
       </c>
@@ -12737,7 +12743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="14.4">
       <c r="A77" s="89" t="s">
         <v>1320</v>
       </c>
@@ -12756,7 +12762,7 @@
       <c r="F77" s="114"/>
       <c r="G77" s="92"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="14.4">
       <c r="A78" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12775,7 +12781,7 @@
       <c r="F78" s="23"/>
       <c r="G78" s="34"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="14.4">
       <c r="A79" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12794,7 +12800,7 @@
       <c r="F79" s="23"/>
       <c r="G79" s="34"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="14.4">
       <c r="A80" s="94" t="s">
         <v>1320</v>
       </c>
@@ -12813,7 +12819,7 @@
       <c r="F80" s="84"/>
       <c r="G80" s="95"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="14.4">
       <c r="A81" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12832,7 +12838,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="14.4">
       <c r="A82" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12851,7 +12857,7 @@
       <c r="F82" s="23"/>
       <c r="G82" s="34"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="14.4">
       <c r="A83" s="94" t="s">
         <v>1320</v>
       </c>
@@ -12870,7 +12876,7 @@
       <c r="F83" s="84"/>
       <c r="G83" s="95"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="14.4">
       <c r="A84" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12889,7 +12895,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="14.4">
       <c r="A85" s="93" t="s">
         <v>1320</v>
       </c>
@@ -12908,7 +12914,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="14.4">
       <c r="A86" s="96" t="s">
         <v>1320</v>
       </c>
@@ -12927,7 +12933,7 @@
       <c r="F86" s="88"/>
       <c r="G86" s="97"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="14.4">
       <c r="A87" s="96" t="s">
         <v>1320</v>
       </c>
@@ -12946,7 +12952,7 @@
       <c r="F87" s="88"/>
       <c r="G87" s="97"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="14.4">
       <c r="A88" s="96" t="s">
         <v>1320</v>
       </c>
@@ -12965,7 +12971,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="34"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="14.4">
       <c r="A89" s="96" t="s">
         <v>1320</v>
       </c>
@@ -12984,7 +12990,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="34"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="14.4">
       <c r="A90" s="96" t="s">
         <v>1320</v>
       </c>
@@ -13003,7 +13009,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="34"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="14.4">
       <c r="A91" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13022,7 +13028,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="34"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="14.4">
       <c r="A92" s="94" t="s">
         <v>1320</v>
       </c>
@@ -13043,7 +13049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1">
+    <row r="93" spans="1:7" s="5" customFormat="1" ht="14.4">
       <c r="A93" s="93" t="s">
         <v>1320</v>
       </c>
@@ -13064,7 +13070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1">
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="14.4">
       <c r="A94" s="93" t="s">
         <v>1320</v>
       </c>
@@ -13085,7 +13091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1">
+    <row r="95" spans="1:7" ht="14.7" thickBot="1">
       <c r="A95" s="49" t="s">
         <v>1320</v>
       </c>
@@ -13104,7 +13110,7 @@
       <c r="F95" s="52"/>
       <c r="G95" s="53"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="14.4">
       <c r="A96" s="28" t="s">
         <v>1320</v>
       </c>
@@ -13123,7 +13129,7 @@
       <c r="F96" s="31"/>
       <c r="G96" s="32"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" ht="14.4">
       <c r="A97" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13142,7 +13148,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="34"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="14.4">
       <c r="A98" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13161,7 +13167,7 @@
       <c r="F98" s="23"/>
       <c r="G98" s="34"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="14.4">
       <c r="A99" s="35" t="s">
         <v>1320</v>
       </c>
@@ -13182,7 +13188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="14.4">
       <c r="A100" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13201,7 +13207,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="34"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="14.4">
       <c r="A101" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13220,7 +13226,7 @@
       <c r="F101" s="23"/>
       <c r="G101" s="34"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" ht="14.4">
       <c r="A102" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13239,7 +13245,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="34"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="14.4">
       <c r="A103" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13258,7 +13264,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="34"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" thickBot="1">
+    <row r="104" spans="1:7" ht="14.7" thickBot="1">
       <c r="A104" s="49" t="s">
         <v>1320</v>
       </c>
@@ -13277,7 +13283,7 @@
       <c r="F104" s="52"/>
       <c r="G104" s="53"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" ht="14.4">
       <c r="A105" s="28" t="s">
         <v>1320</v>
       </c>
@@ -13296,7 +13302,7 @@
       <c r="F105" s="31"/>
       <c r="G105" s="32"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="14.4">
       <c r="A106" s="94" t="s">
         <v>1320</v>
       </c>
@@ -13315,7 +13321,7 @@
       <c r="F106" s="116"/>
       <c r="G106" s="95"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" ht="14.4">
       <c r="A107" s="94" t="s">
         <v>1320</v>
       </c>
@@ -13336,7 +13342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="14.4">
       <c r="A108" s="35" t="s">
         <v>1320</v>
       </c>
@@ -13357,7 +13363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="14.4">
       <c r="A109" s="35" t="s">
         <v>1320</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="14.4">
       <c r="A110" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13397,7 +13403,7 @@
       <c r="F110" s="115"/>
       <c r="G110" s="34"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="14.4">
       <c r="A111" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13416,7 +13422,7 @@
       <c r="F111" s="23"/>
       <c r="G111" s="34"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="14.4">
       <c r="A112" s="100" t="s">
         <v>1320</v>
       </c>
@@ -13435,7 +13441,7 @@
       <c r="F112" s="117"/>
       <c r="G112" s="103"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" ht="14.4">
       <c r="A113" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13454,7 +13460,7 @@
       <c r="F113" s="23"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="14.4">
       <c r="A114" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13473,7 +13479,7 @@
       <c r="F114" s="23"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="14.4">
       <c r="A115" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13492,7 +13498,7 @@
       <c r="F115" s="23"/>
       <c r="G115" s="34"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="14.4">
       <c r="A116" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13511,7 +13517,7 @@
       <c r="F116" s="23"/>
       <c r="G116" s="34"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="14.4">
       <c r="A117" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13530,7 +13536,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="34"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="14.4">
       <c r="A118" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13549,7 +13555,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="34"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="14.4">
       <c r="A119" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13568,7 +13574,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="34"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="14.4">
       <c r="A120" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13587,7 +13593,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="34"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1">
+    <row r="121" spans="1:7" ht="14.7" thickBot="1">
       <c r="A121" s="49" t="s">
         <v>1320</v>
       </c>
@@ -13606,7 +13612,7 @@
       <c r="F121" s="52"/>
       <c r="G121" s="53"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="14.4">
       <c r="A122" s="28" t="s">
         <v>1320</v>
       </c>
@@ -13625,7 +13631,7 @@
       <c r="F122" s="31"/>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="14.4">
       <c r="A123" s="94" t="s">
         <v>1320</v>
       </c>
@@ -13644,7 +13650,7 @@
       <c r="F123" s="84"/>
       <c r="G123" s="95"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="14.4">
       <c r="A124" s="93" t="s">
         <v>1320</v>
       </c>
@@ -13663,7 +13669,7 @@
       <c r="F124" s="23"/>
       <c r="G124" s="34"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" thickBot="1">
+    <row r="125" spans="1:7" ht="14.7" thickBot="1">
       <c r="A125" s="106" t="s">
         <v>1320</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="14.4">
       <c r="A126" s="28" t="s">
         <v>1320</v>
       </c>
@@ -13703,7 +13709,7 @@
       <c r="F126" s="31"/>
       <c r="G126" s="32"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="14.4">
       <c r="A127" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13722,7 +13728,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="34"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="14.4">
       <c r="A128" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13741,7 +13747,7 @@
       <c r="F128" s="23"/>
       <c r="G128" s="34"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="14.4">
       <c r="A129" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13760,7 +13766,7 @@
       <c r="F129" s="23"/>
       <c r="G129" s="34"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="14.4">
       <c r="A130" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13779,7 +13785,7 @@
       <c r="F130" s="23"/>
       <c r="G130" s="34"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="14.4">
       <c r="A131" s="69" t="s">
         <v>1320</v>
       </c>
@@ -13798,7 +13804,7 @@
       <c r="F131" s="84"/>
       <c r="G131" s="95"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" ht="14.4">
       <c r="A132" s="60" t="s">
         <v>1320</v>
       </c>
@@ -13817,7 +13823,7 @@
       <c r="F132" s="23"/>
       <c r="G132" s="34"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="14.4">
       <c r="A133" s="60" t="s">
         <v>1320</v>
       </c>
@@ -13836,7 +13842,7 @@
       <c r="F133" s="23"/>
       <c r="G133" s="34"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" ht="14.4">
       <c r="A134" s="60" t="s">
         <v>1320</v>
       </c>
@@ -13855,7 +13861,7 @@
       <c r="F134" s="23"/>
       <c r="G134" s="34"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="14.4">
       <c r="A135" s="33" t="s">
         <v>1320</v>
       </c>
@@ -13874,7 +13880,7 @@
       <c r="F135" s="23"/>
       <c r="G135" s="34"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" ht="14.7" thickBot="1">
       <c r="A136" s="49" t="s">
         <v>1320</v>
       </c>
@@ -13893,7 +13899,7 @@
       <c r="F136" s="52"/>
       <c r="G136" s="53"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="14.4">
       <c r="A137" s="28" t="s">
         <v>1320</v>
       </c>
@@ -13912,7 +13918,7 @@
       <c r="F137" s="31"/>
       <c r="G137" s="32"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="14.4">
       <c r="A138" s="35" t="s">
         <v>1320</v>
       </c>
@@ -13933,7 +13939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" ht="14.7" thickBot="1">
       <c r="A139" s="49" t="s">
         <v>1320</v>
       </c>
@@ -13952,7 +13958,7 @@
       <c r="F139" s="52"/>
       <c r="G139" s="53"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="14.4">
       <c r="A140" s="89" t="s">
         <v>1320</v>
       </c>
@@ -13971,7 +13977,7 @@
       <c r="F140" s="114"/>
       <c r="G140" s="92"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" ht="14.4">
       <c r="A141" s="93" t="s">
         <v>1320</v>
       </c>
@@ -13990,7 +13996,7 @@
       <c r="F141" s="23"/>
       <c r="G141" s="34"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="14.4">
       <c r="A142" s="94" t="s">
         <v>1320</v>
       </c>
@@ -14009,7 +14015,7 @@
       <c r="F142" s="84"/>
       <c r="G142" s="95"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="14.4">
       <c r="A143" s="93" t="s">
         <v>1320</v>
       </c>
@@ -14028,7 +14034,7 @@
       <c r="F143" s="23"/>
       <c r="G143" s="34"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="14.4">
       <c r="A144" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14049,7 +14055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="14.4">
       <c r="A145" s="112" t="s">
         <v>1320</v>
       </c>
@@ -14070,7 +14076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" thickBot="1">
+    <row r="146" spans="1:7" ht="14.7" thickBot="1">
       <c r="A146" s="37" t="s">
         <v>1320</v>
       </c>
@@ -14091,7 +14097,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="14.4">
       <c r="A147" s="28" t="s">
         <v>1320</v>
       </c>
@@ -14110,7 +14116,7 @@
       <c r="F147" s="31"/>
       <c r="G147" s="32"/>
     </row>
-    <row r="148" spans="1:7" s="8" customFormat="1">
+    <row r="148" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A148" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14129,7 +14135,7 @@
       <c r="F148" s="23"/>
       <c r="G148" s="113"/>
     </row>
-    <row r="149" spans="1:7" s="8" customFormat="1">
+    <row r="149" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A149" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14148,7 +14154,7 @@
       <c r="F149" s="23"/>
       <c r="G149" s="113"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="14.4">
       <c r="A150" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14167,7 +14173,7 @@
       <c r="F150" s="23"/>
       <c r="G150" s="34"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="14.4">
       <c r="A151" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14186,7 +14192,7 @@
       <c r="F151" s="23"/>
       <c r="G151" s="34"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="14.4">
       <c r="A152" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14205,7 +14211,7 @@
       <c r="F152" s="23"/>
       <c r="G152" s="34"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" ht="14.4">
       <c r="A153" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14224,7 +14230,7 @@
       <c r="F153" s="23"/>
       <c r="G153" s="34"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="14.4">
       <c r="A154" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="14.4">
       <c r="A155" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14266,7 +14272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="14.4">
       <c r="A156" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14287,7 +14293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="8" customFormat="1">
+    <row r="157" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A157" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14308,7 +14314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="8" customFormat="1">
+    <row r="158" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A158" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14329,7 +14335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="8" customFormat="1">
+    <row r="159" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A159" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="8" customFormat="1">
+    <row r="160" spans="1:7" s="8" customFormat="1" ht="14.4">
       <c r="A160" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14371,7 +14377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="14.4">
       <c r="A161" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14392,7 +14398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1">
+    <row r="162" spans="1:7" ht="14.7" thickBot="1">
       <c r="A162" s="37" t="s">
         <v>1320</v>
       </c>
@@ -14413,7 +14419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" ht="14.4">
       <c r="A163" s="28" t="s">
         <v>1320</v>
       </c>
@@ -14432,7 +14438,7 @@
       <c r="F163" s="31"/>
       <c r="G163" s="32"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="14.4">
       <c r="A164" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14451,7 +14457,7 @@
       <c r="F164" s="23"/>
       <c r="G164" s="34"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="14.4">
       <c r="A165" s="94" t="s">
         <v>1320</v>
       </c>
@@ -14470,7 +14476,7 @@
       <c r="F165" s="84"/>
       <c r="G165" s="95"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" thickBot="1">
+    <row r="166" spans="1:7" ht="14.7" thickBot="1">
       <c r="A166" s="49" t="s">
         <v>1320</v>
       </c>
@@ -14489,7 +14495,7 @@
       <c r="F166" s="52"/>
       <c r="G166" s="53"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="14.4">
       <c r="A167" s="89" t="s">
         <v>1320</v>
       </c>
@@ -14510,7 +14516,7 @@
       </c>
       <c r="G167" s="92"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="14.4">
       <c r="A168" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14531,7 +14537,7 @@
       </c>
       <c r="G168" s="34"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="14.4">
       <c r="A169" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14552,7 +14558,7 @@
       </c>
       <c r="G169" s="34"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" ht="14.4">
       <c r="A170" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14571,7 +14577,7 @@
       <c r="F170" s="23"/>
       <c r="G170" s="34"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="14.4">
       <c r="A171" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14592,7 +14598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="14.4">
       <c r="A172" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14613,7 +14619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="14.4">
       <c r="A173" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14634,7 +14640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" thickBot="1">
+    <row r="174" spans="1:7" ht="14.7" thickBot="1">
       <c r="A174" s="37" t="s">
         <v>1320</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="14.4">
       <c r="A175" s="89" t="s">
         <v>1320</v>
       </c>
@@ -14676,7 +14682,7 @@
       </c>
       <c r="G175" s="92"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="14.4">
       <c r="A176" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14695,7 +14701,7 @@
       <c r="F176" s="23"/>
       <c r="G176" s="34"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="14.4">
       <c r="A177" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14714,7 +14720,7 @@
       <c r="F177" s="23"/>
       <c r="G177" s="34"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="14.4">
       <c r="A178" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14733,7 +14739,7 @@
       <c r="F178" s="23"/>
       <c r="G178" s="34"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="14.4">
       <c r="A179" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14752,7 +14758,7 @@
       <c r="F179" s="23"/>
       <c r="G179" s="34"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="14.4">
       <c r="A180" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14771,7 +14777,7 @@
       <c r="F180" s="23"/>
       <c r="G180" s="34"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="14.4">
       <c r="A181" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14790,7 +14796,7 @@
       <c r="F181" s="23"/>
       <c r="G181" s="34"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" ht="14.4">
       <c r="A182" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14811,7 +14817,7 @@
       </c>
       <c r="G182" s="34"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="14.4">
       <c r="A183" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14872,7 +14878,7 @@
       <c r="F185" s="23"/>
       <c r="G185" s="34"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="14.4">
       <c r="A186" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14891,7 +14897,7 @@
       <c r="F186" s="23"/>
       <c r="G186" s="34"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="14.4">
       <c r="A187" s="35" t="s">
         <v>1320</v>
       </c>
@@ -14933,7 +14939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="14.4">
       <c r="A189" s="28" t="s">
         <v>1320</v>
       </c>
@@ -14952,7 +14958,7 @@
       <c r="F189" s="31"/>
       <c r="G189" s="32"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="14.4">
       <c r="A190" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14971,7 +14977,7 @@
       <c r="F190" s="23"/>
       <c r="G190" s="34"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="14.4">
       <c r="A191" s="33" t="s">
         <v>1320</v>
       </c>
@@ -14990,7 +14996,7 @@
       <c r="F191" s="23"/>
       <c r="G191" s="34"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="14.4">
       <c r="A192" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15009,7 +15015,7 @@
       <c r="F192" s="23"/>
       <c r="G192" s="34"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="14.4">
       <c r="A193" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15028,7 +15034,7 @@
       <c r="F193" s="23"/>
       <c r="G193" s="34"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="14.4">
       <c r="A194" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15047,7 +15053,7 @@
       <c r="F194" s="23"/>
       <c r="G194" s="34"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" ht="14.4">
       <c r="A195" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15068,7 +15074,7 @@
       </c>
       <c r="G195" s="34"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" ht="14.4">
       <c r="A196" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15089,7 +15095,7 @@
       </c>
       <c r="G196" s="34"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="14.4">
       <c r="A197" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15110,7 +15116,7 @@
       </c>
       <c r="G197" s="34"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="14.4">
       <c r="A198" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15131,7 +15137,7 @@
       </c>
       <c r="G198" s="34"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" ht="14.4">
       <c r="A199" s="33" t="s">
         <v>1320</v>
       </c>
@@ -15150,7 +15156,7 @@
       <c r="F199" s="23"/>
       <c r="G199" s="34"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" thickBot="1">
+    <row r="200" spans="1:7" ht="14.7" thickBot="1">
       <c r="A200" s="44" t="s">
         <v>1320</v>
       </c>
@@ -15169,16 +15175,16 @@
       <c r="F200" s="47"/>
       <c r="G200" s="48"/>
     </row>
-    <row r="201" spans="1:7"/>
-    <row r="202" spans="1:7"/>
-    <row r="203" spans="1:7"/>
-    <row r="204" spans="1:7"/>
-    <row r="205" spans="1:7"/>
-    <row r="206" spans="1:7"/>
-    <row r="207" spans="1:7"/>
-    <row r="208" spans="1:7"/>
-    <row r="209"/>
-    <row r="210"/>
+    <row r="201" spans="1:7" ht="14.4"/>
+    <row r="202" spans="1:7" ht="14.4"/>
+    <row r="203" spans="1:7" ht="14.4"/>
+    <row r="204" spans="1:7" ht="14.4"/>
+    <row r="205" spans="1:7" ht="14.4"/>
+    <row r="206" spans="1:7" ht="14.4"/>
+    <row r="207" spans="1:7" ht="14.4"/>
+    <row r="208" spans="1:7" ht="14.4"/>
+    <row r="209" ht="14.4"/>
+    <row r="210" ht="14.4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="37" priority="16"/>
@@ -15212,19 +15218,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="168.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="168.41796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.41796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.68359375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="63.75" thickBot="1">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="47.1" thickBot="1">
       <c r="A1" s="118" t="s">
         <v>16</v>
       </c>
@@ -15388,7 +15394,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="14.7" thickBot="1">
       <c r="A9" s="62" t="s">
         <v>1664</v>
       </c>
@@ -15428,7 +15434,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11" s="60" t="s">
         <v>1664</v>
       </c>
@@ -15582,7 +15588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="14.7" thickBot="1">
       <c r="A19" s="62" t="s">
         <v>1664</v>
       </c>
@@ -16210,7 +16216,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="34"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1">
+    <row r="51" spans="1:7" ht="14.7" thickBot="1">
       <c r="A51" s="64" t="s">
         <v>1664</v>
       </c>
@@ -16366,7 +16372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1">
+    <row r="59" spans="1:7" ht="14.7" thickBot="1">
       <c r="A59" s="62" t="s">
         <v>1664</v>
       </c>
@@ -16522,7 +16528,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="34"/>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="28.8">
       <c r="A67" s="60" t="s">
         <v>1664</v>
       </c>
@@ -16541,7 +16547,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="34"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1">
+    <row r="68" spans="1:7" ht="14.7" thickBot="1">
       <c r="A68" s="63" t="s">
         <v>1664</v>
       </c>
@@ -16608,19 +16614,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="168.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="168.41796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.68359375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="47.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="47.5" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
         <v>16</v>
       </c>
@@ -16765,7 +16771,7 @@
       <c r="F7" s="132"/>
       <c r="G7" s="136"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="14.7" thickBot="1">
       <c r="A8" s="62" t="s">
         <v>1750</v>
       </c>
@@ -16940,7 +16946,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+    <row r="17" spans="1:7" ht="14.7" thickBot="1">
       <c r="A17" s="62" t="s">
         <v>1750</v>
       </c>
@@ -17585,7 +17591,7 @@
       <c r="F49" s="132"/>
       <c r="G49" s="136"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+    <row r="50" spans="1:7" ht="14.7" thickBot="1">
       <c r="A50" s="64" t="s">
         <v>1750</v>
       </c>
@@ -17741,7 +17747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1">
+    <row r="58" spans="1:7" ht="14.7" thickBot="1">
       <c r="A58" s="62" t="s">
         <v>1750</v>
       </c>
@@ -17876,7 +17882,7 @@
       <c r="F64" s="132"/>
       <c r="G64" s="136"/>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="28.8">
       <c r="A65" s="60" t="s">
         <v>1750</v>
       </c>
@@ -17895,7 +17901,7 @@
       <c r="F65" s="132"/>
       <c r="G65" s="136"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1">
+    <row r="66" spans="1:7" ht="14.7" thickBot="1">
       <c r="A66" s="63" t="s">
         <v>1750</v>
       </c>
@@ -17962,19 +17968,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="147" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="5" width="11.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.83984375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.68359375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="48" thickBot="1">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="47.1" thickBot="1">
       <c r="A1" s="118" t="s">
         <v>16</v>
       </c>
@@ -18119,7 +18125,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="71"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="14.7" thickBot="1">
       <c r="A8" s="62" t="s">
         <v>1811</v>
       </c>
@@ -18275,7 +18281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="14.7" thickBot="1">
       <c r="A16" s="62" t="s">
         <v>1811</v>
       </c>
@@ -18920,7 +18926,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="71"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+    <row r="49" spans="1:7" ht="14.7" thickBot="1">
       <c r="A49" s="64" t="s">
         <v>1811</v>
       </c>
@@ -19076,7 +19082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1">
+    <row r="57" spans="1:7" ht="14.7" thickBot="1">
       <c r="A57" s="62" t="s">
         <v>1811</v>
       </c>
@@ -19230,7 +19236,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="71"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1">
+    <row r="65" spans="1:7" ht="14.7" thickBot="1">
       <c r="A65" s="63" t="s">
         <v>1811</v>
       </c>
@@ -19307,16 +19313,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="5.41796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.26171875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.41796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.68359375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.68359375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1" ht="45.6" customHeight="1" thickBot="1">
@@ -19536,7 +19542,7 @@
       <c r="F11" s="152"/>
       <c r="G11" s="163"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="14.7" thickBot="1">
       <c r="A12" s="164" t="s">
         <v>1875</v>
       </c>
@@ -19595,7 +19601,7 @@
       <c r="F14" s="152"/>
       <c r="G14" s="163"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="14.7" thickBot="1">
       <c r="A15" s="174" t="s">
         <v>1875</v>
       </c>
@@ -19787,7 +19793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="14.7" thickBot="1">
       <c r="A25" s="182" t="s">
         <v>1875</v>
       </c>
@@ -19953,7 +19959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="14.7" thickBot="1">
       <c r="A33" s="164" t="s">
         <v>1875</v>
       </c>
@@ -20185,7 +20191,7 @@
       <c r="F44" s="152"/>
       <c r="G44" s="163"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
+    <row r="45" spans="1:7" ht="14.7" thickBot="1">
       <c r="A45" s="164" t="s">
         <v>1875</v>
       </c>
@@ -20282,7 +20288,7 @@
       <c r="F49" s="152"/>
       <c r="G49" s="163"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+    <row r="50" spans="1:7" ht="14.7" thickBot="1">
       <c r="A50" s="174" t="s">
         <v>1875</v>
       </c>
@@ -20320,7 +20326,7 @@
       <c r="F51" s="160"/>
       <c r="G51" s="161"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+    <row r="52" spans="1:7" ht="14.7" thickBot="1">
       <c r="A52" s="170" t="s">
         <v>1875</v>
       </c>
@@ -20366,12 +20372,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="31.5">
+    <row r="1" spans="2:2" ht="30.6">
       <c r="B1" s="202" t="s">
         <v>0</v>
       </c>
@@ -20482,17 +20488,17 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="504" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="504" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="540" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.140625" style="504" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="504" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="504" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="541" customWidth="1"/>
+    <col min="1" max="1" width="14.15625" style="504" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" style="504" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.41796875" style="540" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.15625" style="504" customWidth="1"/>
+    <col min="5" max="5" width="14.68359375" style="504" customWidth="1"/>
+    <col min="6" max="6" width="13.26171875" style="504" customWidth="1"/>
+    <col min="7" max="7" width="16.83984375" style="541" customWidth="1"/>
     <col min="8" max="8" width="58" style="504" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="504"/>
+    <col min="9" max="16384" width="8.68359375" style="504"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="499" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
@@ -20645,7 +20651,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="14.7" thickBot="1">
       <c r="A8" s="566" t="s">
         <v>23</v>
       </c>
@@ -21261,7 +21267,7 @@
       <c r="G37" s="509"/>
       <c r="H37" s="302"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="14.7" thickBot="1">
       <c r="A38" s="510" t="s">
         <v>23</v>
       </c>
@@ -21665,7 +21671,7 @@
       <c r="G57" s="509"/>
       <c r="H57" s="302"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="14.7" thickBot="1">
       <c r="A58" s="510" t="s">
         <v>23</v>
       </c>
@@ -21745,7 +21751,7 @@
       <c r="G61" s="509"/>
       <c r="H61" s="302"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="14.7" thickBot="1">
       <c r="A62" s="510" t="s">
         <v>23</v>
       </c>
@@ -21869,7 +21875,7 @@
       <c r="G67" s="574"/>
       <c r="H67" s="302"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="14.7" thickBot="1">
       <c r="A68" s="510" t="s">
         <v>23</v>
       </c>
@@ -21889,7 +21895,7 @@
       <c r="G68" s="513"/>
       <c r="H68" s="302"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="14.7" thickBot="1">
       <c r="A69" s="520" t="s">
         <v>23</v>
       </c>
@@ -21991,7 +21997,7 @@
       <c r="G73" s="509"/>
       <c r="H73" s="302"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="14.7" thickBot="1">
       <c r="A74" s="510" t="s">
         <v>23</v>
       </c>
@@ -22597,7 +22603,7 @@
       <c r="G102" s="509"/>
       <c r="H102" s="302"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1">
+    <row r="103" spans="1:8" ht="14.7" thickBot="1">
       <c r="A103" s="510" t="s">
         <v>23</v>
       </c>
@@ -22839,7 +22845,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1">
+    <row r="115" spans="1:8" ht="14.7" thickBot="1">
       <c r="A115" s="510" t="s">
         <v>23</v>
       </c>
@@ -23079,7 +23085,7 @@
       <c r="G126" s="509"/>
       <c r="H126" s="302"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="14.7" thickBot="1">
       <c r="A127" s="510" t="s">
         <v>23</v>
       </c>
@@ -23702,33 +23708,33 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.83984375" style="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="114.68359375" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="256" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="256" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.83984375" style="256" customWidth="1"/>
+    <col min="7" max="7" width="31.578125" style="256" customWidth="1"/>
+    <col min="8" max="8" width="19.68359375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63" customHeight="1" thickBot="1">
-      <c r="A1" s="630" t="s">
+      <c r="A1" s="635" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="631"/>
-      <c r="C1" s="631"/>
-      <c r="D1" s="631"/>
-      <c r="E1" s="631"/>
-      <c r="F1" s="631"/>
-      <c r="G1" s="632"/>
+      <c r="B1" s="636"/>
+      <c r="C1" s="636"/>
+      <c r="D1" s="636"/>
+      <c r="E1" s="636"/>
+      <c r="F1" s="636"/>
+      <c r="G1" s="637"/>
       <c r="H1" s="301" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1">
+    <row r="2" spans="1:8" ht="15.9" thickBot="1">
       <c r="A2" s="543" t="s">
         <v>16</v>
       </c>
@@ -24042,7 +24048,7 @@
       </c>
       <c r="H14" s="302"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="28.8">
       <c r="A15" s="545" t="s">
         <v>23</v>
       </c>
@@ -24076,7 +24082,7 @@
       <c r="C16" s="587" t="s">
         <v>357</v>
       </c>
-      <c r="D16" s="633" t="s">
+      <c r="D16" s="630" t="s">
         <v>358</v>
       </c>
       <c r="E16" s="587" t="s">
@@ -24100,7 +24106,7 @@
       <c r="C17" s="587" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="633" t="s">
+      <c r="D17" s="630" t="s">
         <v>359</v>
       </c>
       <c r="E17" s="587" t="s">
@@ -24124,7 +24130,7 @@
       <c r="C18" s="587" t="s">
         <v>360</v>
       </c>
-      <c r="D18" s="633" t="s">
+      <c r="D18" s="630" t="s">
         <v>361</v>
       </c>
       <c r="E18" s="587" t="s">
@@ -24148,7 +24154,7 @@
       <c r="C19" s="591" t="s">
         <v>360</v>
       </c>
-      <c r="D19" s="634" t="s">
+      <c r="D19" s="631" t="s">
         <v>362</v>
       </c>
       <c r="E19" s="591" t="s">
@@ -24162,7 +24168,7 @@
       </c>
       <c r="H19" s="302"/>
     </row>
-    <row r="20" spans="1:8" ht="14.45" customHeight="1">
+    <row r="20" spans="1:8" ht="14.5" customHeight="1">
       <c r="A20" s="232" t="s">
         <v>23</v>
       </c>
@@ -24342,7 +24348,7 @@
       <c r="C27" s="587" t="s">
         <v>378</v>
       </c>
-      <c r="D27" s="633" t="s">
+      <c r="D27" s="630" t="s">
         <v>379</v>
       </c>
       <c r="E27" s="587" t="s">
@@ -24366,7 +24372,7 @@
       <c r="C28" s="587" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="633" t="s">
+      <c r="D28" s="630" t="s">
         <v>380</v>
       </c>
       <c r="E28" s="587" t="s">
@@ -24380,7 +24386,7 @@
       </c>
       <c r="H28" s="302"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1">
+    <row r="29" spans="1:8" ht="14.5" customHeight="1">
       <c r="A29" s="582" t="s">
         <v>23</v>
       </c>
@@ -24719,24 +24725,24 @@
   </sheetPr>
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="168.140625" style="264" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="265" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.42578125" style="305" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="168.15625" style="264" customWidth="1"/>
+    <col min="5" max="5" width="16.83984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.578125" style="265" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.41796875" style="305" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="243" customFormat="1" ht="32.25" thickBot="1">
+    <row r="1" spans="1:8" s="243" customFormat="1" ht="31.5" thickBot="1">
       <c r="A1" s="228" t="s">
         <v>16</v>
       </c>
@@ -25070,7 +25076,7 @@
       <c r="G16" s="247"/>
       <c r="H16" s="302"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="14.7" thickBot="1">
       <c r="A17" s="271" t="s">
         <v>406</v>
       </c>
@@ -25110,7 +25116,7 @@
       <c r="G18" s="603"/>
       <c r="H18" s="302"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="14.7" thickBot="1">
       <c r="A19" s="306" t="s">
         <v>406</v>
       </c>
@@ -25314,7 +25320,7 @@
       <c r="G28" s="247"/>
       <c r="H28" s="302"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="14.7" thickBot="1">
       <c r="A29" s="257" t="s">
         <v>406</v>
       </c>
@@ -25404,7 +25410,7 @@
       <c r="C33" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="635" t="s">
+      <c r="D33" s="632" t="s">
         <v>470</v>
       </c>
       <c r="E33" s="279" t="s">
@@ -25448,7 +25454,7 @@
       <c r="C35" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="632" t="s">
         <v>475</v>
       </c>
       <c r="E35" s="279" t="s">
@@ -25470,7 +25476,7 @@
       <c r="C36" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="635" t="s">
+      <c r="D36" s="632" t="s">
         <v>477</v>
       </c>
       <c r="E36" s="279" t="s">
@@ -25514,7 +25520,7 @@
       <c r="C38" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D38" s="280" t="s">
+      <c r="D38" s="632" t="s">
         <v>479</v>
       </c>
       <c r="E38" s="279" t="s">
@@ -25536,7 +25542,7 @@
       <c r="C39" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D39" s="635" t="s">
+      <c r="D39" s="632" t="s">
         <v>480</v>
       </c>
       <c r="E39" s="279" t="s">
@@ -25580,7 +25586,7 @@
       <c r="C41" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D41" s="280" t="s">
+      <c r="D41" s="632" t="s">
         <v>482</v>
       </c>
       <c r="E41" s="279" t="s">
@@ -25602,7 +25608,7 @@
       <c r="C42" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D42" s="635" t="s">
+      <c r="D42" s="632" t="s">
         <v>483</v>
       </c>
       <c r="E42" s="279" t="s">
@@ -25646,7 +25652,7 @@
       <c r="C44" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D44" s="280" t="s">
+      <c r="D44" s="632" t="s">
         <v>485</v>
       </c>
       <c r="E44" s="279" t="s">
@@ -25668,7 +25674,7 @@
       <c r="C45" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D45" s="635" t="s">
+      <c r="D45" s="632" t="s">
         <v>486</v>
       </c>
       <c r="E45" s="279" t="s">
@@ -25712,7 +25718,7 @@
       <c r="C47" s="277" t="s">
         <v>467</v>
       </c>
-      <c r="D47" s="280" t="s">
+      <c r="D47" s="632" t="s">
         <v>488</v>
       </c>
       <c r="E47" s="279" t="s">
@@ -25848,7 +25854,7 @@
       <c r="G53" s="247"/>
       <c r="H53" s="302"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="14.7" thickBot="1">
       <c r="A54" s="257" t="s">
         <v>406</v>
       </c>
@@ -25900,7 +25906,7 @@
       <c r="C56" s="267" t="s">
         <v>507</v>
       </c>
-      <c r="D56" s="268" t="s">
+      <c r="D56" s="628" t="s">
         <v>508</v>
       </c>
       <c r="E56" s="267" t="s">
@@ -25922,7 +25928,7 @@
       <c r="C57" s="267" t="s">
         <v>509</v>
       </c>
-      <c r="D57" s="268" t="s">
+      <c r="D57" s="628" t="s">
         <v>510</v>
       </c>
       <c r="E57" s="267" t="s">
@@ -25964,7 +25970,7 @@
       <c r="C59" s="267" t="s">
         <v>514</v>
       </c>
-      <c r="D59" s="268" t="s">
+      <c r="D59" s="628" t="s">
         <v>515</v>
       </c>
       <c r="E59" s="267" t="s">
@@ -25986,7 +25992,7 @@
       <c r="C60" s="267" t="s">
         <v>516</v>
       </c>
-      <c r="D60" s="268" t="s">
+      <c r="D60" s="628" t="s">
         <v>517</v>
       </c>
       <c r="E60" s="267" t="s">
@@ -26008,7 +26014,7 @@
       <c r="C61" s="267" t="s">
         <v>518</v>
       </c>
-      <c r="D61" s="268" t="s">
+      <c r="D61" s="628" t="s">
         <v>519</v>
       </c>
       <c r="E61" s="267" t="s">
@@ -26030,7 +26036,7 @@
       <c r="C62" s="267" t="s">
         <v>520</v>
       </c>
-      <c r="D62" s="268" t="s">
+      <c r="D62" s="628" t="s">
         <v>521</v>
       </c>
       <c r="E62" s="267" t="s">
@@ -26072,7 +26078,7 @@
       <c r="C64" s="267" t="s">
         <v>524</v>
       </c>
-      <c r="D64" s="268" t="s">
+      <c r="D64" s="628" t="s">
         <v>525</v>
       </c>
       <c r="E64" s="267" t="s">
@@ -26094,7 +26100,7 @@
       <c r="C65" s="267" t="s">
         <v>526</v>
       </c>
-      <c r="D65" s="268" t="s">
+      <c r="D65" s="628" t="s">
         <v>527</v>
       </c>
       <c r="E65" s="267" t="s">
@@ -26116,7 +26122,7 @@
       <c r="C66" s="267" t="s">
         <v>528</v>
       </c>
-      <c r="D66" s="268" t="s">
+      <c r="D66" s="628" t="s">
         <v>529</v>
       </c>
       <c r="E66" s="267" t="s">
@@ -26138,7 +26144,7 @@
       <c r="C67" s="267" t="s">
         <v>530</v>
       </c>
-      <c r="D67" s="268" t="s">
+      <c r="D67" s="628" t="s">
         <v>531</v>
       </c>
       <c r="E67" s="267" t="s">
@@ -26160,7 +26166,7 @@
       <c r="C68" s="267" t="s">
         <v>532</v>
       </c>
-      <c r="D68" s="268" t="s">
+      <c r="D68" s="628" t="s">
         <v>533</v>
       </c>
       <c r="E68" s="267" t="s">
@@ -26242,7 +26248,7 @@
       <c r="C72" s="274">
         <v>40</v>
       </c>
-      <c r="D72" s="268" t="s">
+      <c r="D72" s="628" t="s">
         <v>537</v>
       </c>
       <c r="E72" s="267" t="s">
@@ -26264,7 +26270,7 @@
       <c r="C73" s="274">
         <v>41</v>
       </c>
-      <c r="D73" s="268" t="s">
+      <c r="D73" s="628" t="s">
         <v>538</v>
       </c>
       <c r="E73" s="267" t="s">
@@ -26342,7 +26348,7 @@
       <c r="G76" s="270"/>
       <c r="H76" s="302"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+    <row r="77" spans="1:8" ht="14.7" thickBot="1">
       <c r="A77" s="271" t="s">
         <v>406</v>
       </c>
@@ -27132,7 +27138,7 @@
       <c r="G114" s="270"/>
       <c r="H114" s="302"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1">
+    <row r="115" spans="1:8" ht="14.7" thickBot="1">
       <c r="A115" s="271" t="s">
         <v>406</v>
       </c>
@@ -27248,7 +27254,7 @@
       <c r="C120" s="274" t="s">
         <v>614</v>
       </c>
-      <c r="D120" s="268" t="s">
+      <c r="D120" s="628" t="s">
         <v>617</v>
       </c>
       <c r="E120" s="267" t="s">
@@ -27268,7 +27274,7 @@
       <c r="C121" s="267" t="s">
         <v>618</v>
       </c>
-      <c r="D121" s="268" t="s">
+      <c r="D121" s="628" t="s">
         <v>619</v>
       </c>
       <c r="E121" s="267" t="s">
@@ -27350,7 +27356,7 @@
       <c r="C125" s="274" t="s">
         <v>626</v>
       </c>
-      <c r="D125" s="268" t="s">
+      <c r="D125" s="628" t="s">
         <v>627</v>
       </c>
       <c r="E125" s="267" t="s">
@@ -27370,7 +27376,7 @@
       <c r="C126" s="274" t="s">
         <v>628</v>
       </c>
-      <c r="D126" s="268" t="s">
+      <c r="D126" s="628" t="s">
         <v>629</v>
       </c>
       <c r="E126" s="267" t="s">
@@ -27688,7 +27694,7 @@
       <c r="G141" s="247"/>
       <c r="H141" s="302"/>
     </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1">
+    <row r="142" spans="1:8" ht="14.7" thickBot="1">
       <c r="A142" s="291" t="s">
         <v>406</v>
       </c>
@@ -27778,7 +27784,7 @@
       <c r="C146" s="267" t="s">
         <v>668</v>
       </c>
-      <c r="D146" s="268" t="s">
+      <c r="D146" s="628" t="s">
         <v>669</v>
       </c>
       <c r="E146" s="267" t="s">
@@ -27868,7 +27874,7 @@
       <c r="G150" s="270"/>
       <c r="H150" s="302"/>
     </row>
-    <row r="151" spans="1:8" ht="15.75" thickBot="1">
+    <row r="151" spans="1:8" ht="14.7" thickBot="1">
       <c r="A151" s="257" t="s">
         <v>406</v>
       </c>
@@ -27898,7 +27904,7 @@
       <c r="C152" s="284" t="s">
         <v>679</v>
       </c>
-      <c r="D152" s="286" t="s">
+      <c r="D152" s="633" t="s">
         <v>680</v>
       </c>
       <c r="E152" s="284" t="s">
@@ -27920,7 +27926,7 @@
       <c r="C153" s="267" t="s">
         <v>679</v>
       </c>
-      <c r="D153" s="268" t="s">
+      <c r="D153" s="628" t="s">
         <v>682</v>
       </c>
       <c r="E153" s="267" t="s">
@@ -27942,7 +27948,7 @@
       <c r="C154" s="267" t="s">
         <v>679</v>
       </c>
-      <c r="D154" s="268" t="s">
+      <c r="D154" s="628" t="s">
         <v>683</v>
       </c>
       <c r="E154" s="267" t="s">
@@ -28050,7 +28056,7 @@
       <c r="C159" s="267" t="s">
         <v>690</v>
       </c>
-      <c r="D159" s="268" t="s">
+      <c r="D159" s="628" t="s">
         <v>691</v>
       </c>
       <c r="E159" s="267" t="s">
@@ -28170,7 +28176,7 @@
       <c r="C165" s="267" t="s">
         <v>700</v>
       </c>
-      <c r="D165" s="268" t="s">
+      <c r="D165" s="628" t="s">
         <v>701</v>
       </c>
       <c r="E165" s="267" t="s">
@@ -28472,7 +28478,7 @@
       <c r="C180" s="267" t="s">
         <v>727</v>
       </c>
-      <c r="D180" s="268" t="s">
+      <c r="D180" s="628" t="s">
         <v>728</v>
       </c>
       <c r="E180" s="267" t="s">
@@ -28712,7 +28718,7 @@
       <c r="C192" s="267" t="s">
         <v>744</v>
       </c>
-      <c r="D192" s="268" t="s">
+      <c r="D192" s="628" t="s">
         <v>745</v>
       </c>
       <c r="E192" s="267" t="s">
@@ -28734,7 +28740,7 @@
       <c r="C193" s="267" t="s">
         <v>744</v>
       </c>
-      <c r="D193" s="268" t="s">
+      <c r="D193" s="628" t="s">
         <v>746</v>
       </c>
       <c r="E193" s="267" t="s">
@@ -28768,7 +28774,7 @@
       <c r="G194" s="270"/>
       <c r="H194" s="302"/>
     </row>
-    <row r="195" spans="1:8" ht="15.75" thickBot="1">
+    <row r="195" spans="1:8" ht="14.7" thickBot="1">
       <c r="A195" s="291" t="s">
         <v>406</v>
       </c>
@@ -28778,7 +28784,7 @@
       <c r="C195" s="292" t="s">
         <v>747</v>
       </c>
-      <c r="D195" s="293" t="s">
+      <c r="D195" s="634" t="s">
         <v>749</v>
       </c>
       <c r="E195" s="292" t="s">
@@ -28830,7 +28836,7 @@
       <c r="G197" s="270"/>
       <c r="H197" s="302"/>
     </row>
-    <row r="198" spans="1:8" ht="15.75" thickBot="1">
+    <row r="198" spans="1:8" ht="14.7" thickBot="1">
       <c r="A198" s="257" t="s">
         <v>406</v>
       </c>
@@ -29314,7 +29320,7 @@
       <c r="G220" s="247"/>
       <c r="H220" s="302"/>
     </row>
-    <row r="221" spans="1:8" ht="15.75" thickBot="1">
+    <row r="221" spans="1:8" ht="14.7" thickBot="1">
       <c r="A221" s="248" t="s">
         <v>406</v>
       </c>
@@ -29363,20 +29369,20 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="169.5703125" style="362" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="305" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="305" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="7.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="169.578125" style="362" customWidth="1"/>
+    <col min="5" max="5" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83984375" style="305" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" style="305" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.26171875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.75" thickBot="1">
+    <row r="1" spans="1:8" ht="47.1" thickBot="1">
       <c r="A1" s="330" t="s">
         <v>16</v>
       </c>
@@ -29482,7 +29488,7 @@
       <c r="G5" s="343"/>
       <c r="H5" s="302"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="14.7" thickBot="1">
       <c r="A6" s="257" t="s">
         <v>796</v>
       </c>
@@ -29588,7 +29594,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="14.7" thickBot="1">
       <c r="A11" s="257" t="s">
         <v>796</v>
       </c>
@@ -30498,7 +30504,7 @@
       <c r="G54" s="358"/>
       <c r="H54" s="302"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="14.7" thickBot="1">
       <c r="A55" s="291" t="s">
         <v>796</v>
       </c>
@@ -30778,7 +30784,7 @@
       <c r="G68" s="343"/>
       <c r="H68" s="302"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="14.7" thickBot="1">
       <c r="A69" s="248" t="s">
         <v>796</v>
       </c>
@@ -30833,20 +30839,20 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="395" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="395" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="395" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="131.42578125" style="371" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="371" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="370" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="395" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.68359375" style="395" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="395" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="131.41796875" style="371" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" style="371" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" style="370" customWidth="1"/>
     <col min="7" max="7" width="12" style="371" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="371" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="371"/>
+    <col min="8" max="8" width="63.41796875" style="371" customWidth="1"/>
+    <col min="9" max="16384" width="8.68359375" style="371"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="369" customFormat="1" ht="63.75" thickBot="1">
+    <row r="1" spans="1:8" s="369" customFormat="1" ht="47.1" thickBot="1">
       <c r="A1" s="366" t="s">
         <v>16</v>
       </c>
@@ -31126,7 +31132,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="14.7" thickBot="1">
       <c r="A14" s="402" t="s">
         <v>903</v>
       </c>
@@ -31215,7 +31221,7 @@
       </c>
       <c r="H17" s="302"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="14.7" thickBot="1">
       <c r="A18" s="381" t="s">
         <v>903</v>
       </c>
@@ -31445,7 +31451,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="14.7" thickBot="1">
       <c r="A29" s="402" t="s">
         <v>903</v>
       </c>
@@ -31678,7 +31684,7 @@
       </c>
       <c r="H39" s="302"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="14.7" thickBot="1">
       <c r="A40" s="421" t="s">
         <v>903</v>
       </c>
@@ -31796,7 +31802,7 @@
       <c r="G45" s="372"/>
       <c r="H45" s="302"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="14.7" thickBot="1">
       <c r="A46" s="381" t="s">
         <v>903</v>
       </c>
@@ -31855,7 +31861,7 @@
       <c r="G48" s="372"/>
       <c r="H48" s="302"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="14.7" thickBot="1">
       <c r="A49" s="381" t="s">
         <v>903</v>
       </c>
@@ -31910,17 +31916,17 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="395" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="395" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="395" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.42578125" style="371" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="371" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="370" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="395" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="395" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="395" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.41796875" style="371" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="371" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.578125" style="370" customWidth="1"/>
     <col min="7" max="7" width="12" style="370" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" style="371" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="371"/>
+    <col min="8" max="8" width="65.41796875" style="371" customWidth="1"/>
+    <col min="9" max="16384" width="8.68359375" style="371"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="369" customFormat="1" ht="52.35" customHeight="1" thickBot="1">
@@ -32291,7 +32297,7 @@
       </c>
       <c r="H17" s="302"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="14.7" thickBot="1">
       <c r="A18" s="441" t="s">
         <v>983</v>
       </c>
@@ -32519,7 +32525,7 @@
       </c>
       <c r="H28" s="302"/>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:8" ht="28.8">
       <c r="A29" s="96" t="s">
         <v>983</v>
       </c>
@@ -32753,7 +32759,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="14.7" thickBot="1">
       <c r="A39" s="456" t="s">
         <v>983</v>
       </c>
@@ -33057,7 +33063,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="14.7" thickBot="1">
       <c r="A53" s="441" t="s">
         <v>983</v>
       </c>
@@ -33287,7 +33293,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+    <row r="64" spans="1:8" ht="14.7" thickBot="1">
       <c r="A64" s="456" t="s">
         <v>983</v>
       </c>
@@ -33875,7 +33881,7 @@
       </c>
       <c r="H90" s="302"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="14.7" thickBot="1">
       <c r="A91" s="441" t="s">
         <v>983</v>
       </c>
@@ -33997,7 +34003,7 @@
       <c r="G96" s="97"/>
       <c r="H96" s="302"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1">
+    <row r="97" spans="1:8" ht="14.7" thickBot="1">
       <c r="A97" s="441" t="s">
         <v>983</v>
       </c>
@@ -34123,7 +34129,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1">
+    <row r="103" spans="1:8" ht="14.7" thickBot="1">
       <c r="A103" s="456" t="s">
         <v>983</v>
       </c>
@@ -34483,7 +34489,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1">
+    <row r="120" spans="1:8" ht="14.7" thickBot="1">
       <c r="A120" s="472" t="s">
         <v>983</v>
       </c>
@@ -34527,17 +34533,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.26171875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="3"/>
+    <col min="8" max="8" width="52.41796875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.68359375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="368" customFormat="1" ht="52.35" customHeight="1" thickBot="1">
@@ -34648,7 +34654,7 @@
       </c>
       <c r="H5" s="302"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="14.7" thickBot="1">
       <c r="A6" s="64" t="s">
         <v>1191</v>
       </c>
@@ -34888,7 +34894,7 @@
       </c>
       <c r="H16" s="302"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="14.7" thickBot="1">
       <c r="A17" s="64" t="s">
         <v>1191</v>
       </c>
@@ -35180,7 +35186,7 @@
       </c>
       <c r="H30" s="302"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="14.7" thickBot="1">
       <c r="A31" s="488" t="s">
         <v>1191</v>
       </c>
@@ -35342,7 +35348,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="302"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="14.7" thickBot="1">
       <c r="A39" s="64" t="s">
         <v>1191</v>
       </c>
@@ -35990,7 +35996,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="302"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1">
+    <row r="71" spans="1:8" ht="14.7" thickBot="1">
       <c r="A71" s="64" t="s">
         <v>1191</v>
       </c>
@@ -36112,7 +36118,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="302"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+    <row r="77" spans="1:8" ht="14.7" thickBot="1">
       <c r="A77" s="64" t="s">
         <v>1191</v>
       </c>
@@ -36272,7 +36278,7 @@
       <c r="G84" s="34"/>
       <c r="H84" s="302"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="14.7" thickBot="1">
       <c r="A85" s="63" t="s">
         <v>1191</v>
       </c>

--- a/research/ESRS/ESRS_Draft_10_2023.xlsx
+++ b/research/ESRS/ESRS_Draft_10_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_STUDIUM\PYTHON\UASFRA-MS-PROJDIGI\research\ESRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC8571-1DB5-48D4-A06E-C79F7263FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2EFBB4-114B-4A0A-86B5-4528BD2112C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="683" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10477" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10477" uniqueCount="2014">
   <si>
     <t>[Draft] List of ESRS Data Points - Implementation Guidance</t>
   </si>
@@ -6167,6 +6167,9 @@
   </si>
   <si>
     <t>xsd:decimal</t>
+  </si>
+  <si>
+    <t>GHGReduction</t>
   </si>
 </sst>
 </file>
@@ -7433,7 +7436,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="732">
+  <cellXfs count="731">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -9087,9 +9090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9110,12 +9110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -9150,6 +9144,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10346,16 +10346,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" thickBot="1">
-      <c r="A1" s="729" t="s">
+      <c r="A1" s="726" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="730"/>
-      <c r="C1" s="730"/>
-      <c r="D1" s="730"/>
-      <c r="E1" s="730"/>
-      <c r="F1" s="730"/>
-      <c r="G1" s="730"/>
-      <c r="H1" s="731"/>
+      <c r="B1" s="727"/>
+      <c r="C1" s="727"/>
+      <c r="D1" s="727"/>
+      <c r="E1" s="727"/>
+      <c r="F1" s="727"/>
+      <c r="G1" s="727"/>
+      <c r="H1" s="728"/>
       <c r="I1" s="301" t="s">
         <v>1955</v>
       </c>
@@ -16010,11 +16010,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D84:D96 D105:D108 D114:D115 D112">
-    <cfRule type="duplicateValues" dxfId="72" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -40646,15 +40646,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63" customHeight="1" thickBot="1">
-      <c r="A1" s="729" t="s">
+      <c r="A1" s="726" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="730"/>
-      <c r="C1" s="730"/>
-      <c r="D1" s="730"/>
-      <c r="E1" s="730"/>
-      <c r="F1" s="730"/>
-      <c r="G1" s="731"/>
+      <c r="B1" s="727"/>
+      <c r="C1" s="727"/>
+      <c r="D1" s="727"/>
+      <c r="E1" s="727"/>
+      <c r="F1" s="727"/>
+      <c r="G1" s="728"/>
       <c r="H1" s="301" t="s">
         <v>1955</v>
       </c>
@@ -43092,16 +43092,16 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -44168,14 +44168,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D46 D48:D1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="62" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D49 D2:D46">
-    <cfRule type="duplicateValues" dxfId="60" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="189"/>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -48588,8 +48588,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D78:D79">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -48608,7 +48608,7 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -48624,168 +48624,168 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.7" thickBot="1"/>
     <row r="2" spans="2:8" ht="16.2" thickTop="1" thickBot="1">
-      <c r="B2" s="722" t="s">
+      <c r="B2" s="719" t="s">
         <v>1994</v>
       </c>
-      <c r="C2" s="723" t="s">
+      <c r="C2" s="720" t="s">
         <v>2006</v>
       </c>
-      <c r="D2" s="723" t="s">
+      <c r="D2" s="720" t="s">
         <v>1995</v>
       </c>
-      <c r="E2" s="723" t="s">
+      <c r="E2" s="720" t="s">
         <v>1996</v>
       </c>
-      <c r="F2" s="723" t="s">
+      <c r="F2" s="720" t="s">
         <v>1997</v>
       </c>
-      <c r="G2" s="725" t="s">
+      <c r="G2" s="722" t="s">
         <v>1998</v>
       </c>
-      <c r="H2" s="724" t="s">
+      <c r="H2" s="721" t="s">
         <v>2011</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.7" thickTop="1">
-      <c r="B3" s="710">
-        <v>1</v>
-      </c>
-      <c r="C3" s="711" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D3" s="711" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E3" s="712" t="s">
-        <v>508</v>
-      </c>
-      <c r="F3" s="713" t="s">
-        <v>1976</v>
-      </c>
-      <c r="G3" s="726" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H3" s="714" t="s">
+      <c r="B3" s="709">
+        <v>11</v>
+      </c>
+      <c r="C3" s="710" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D3" s="710" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E3" s="711" t="s">
+        <v>470</v>
+      </c>
+      <c r="F3" s="712" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G3" s="723" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H3" s="713" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="715">
-        <v>2</v>
+      <c r="B4" s="714">
+        <v>4</v>
       </c>
       <c r="C4" s="615" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D4" s="615" t="s">
-        <v>1966</v>
+        <v>1991</v>
       </c>
       <c r="E4" s="701" t="s">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="F4" s="338" t="s">
-        <v>1977</v>
-      </c>
-      <c r="G4" s="727" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H4" s="716" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G4" s="724" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="715">
-        <v>3</v>
+      <c r="B5" s="714">
+        <v>5</v>
       </c>
       <c r="C5" s="615" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D5" s="615" t="s">
-        <v>1967</v>
+        <v>1991</v>
       </c>
       <c r="E5" s="701" t="s">
-        <v>515</v>
+        <v>701</v>
       </c>
       <c r="F5" s="338" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G5" s="727" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H5" s="716" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G5" s="724" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="715">
-        <v>4</v>
-      </c>
-      <c r="C6" s="615" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D6" s="615" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E6" s="701" t="s">
-        <v>680</v>
+      <c r="B6" s="714">
+        <v>19</v>
+      </c>
+      <c r="C6" s="641" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D6" s="641" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E6" s="704" t="s">
+        <v>836</v>
       </c>
       <c r="F6" s="338" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G6" s="727" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="716" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G6" s="724" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H6" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="715">
-        <v>5</v>
-      </c>
-      <c r="C7" s="615" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D7" s="615" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E7" s="701" t="s">
-        <v>701</v>
+      <c r="B7" s="714">
+        <v>20</v>
+      </c>
+      <c r="C7" s="639" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D7" s="639" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E7" s="704" t="s">
+        <v>839</v>
       </c>
       <c r="F7" s="338" t="s">
-        <v>1993</v>
-      </c>
-      <c r="G7" s="727" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="716" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G7" s="724" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H7" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="715">
-        <v>6</v>
-      </c>
-      <c r="C8" s="615" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D8" s="615" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E8" s="701" t="s">
-        <v>416</v>
+      <c r="B8" s="714">
+        <v>21</v>
+      </c>
+      <c r="C8" s="639" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D8" s="639" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E8" s="704" t="s">
+        <v>838</v>
       </c>
       <c r="F8" s="338" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G8" s="727" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="716" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G8" s="724" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H8" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="715">
+      <c r="B9" s="714">
         <v>7</v>
       </c>
       <c r="C9" s="615" t="s">
@@ -48800,354 +48800,354 @@
       <c r="F9" s="338" t="s">
         <v>1974</v>
       </c>
-      <c r="G9" s="727" t="s">
+      <c r="G9" s="724" t="s">
         <v>2000</v>
       </c>
-      <c r="H9" s="716" t="s">
+      <c r="H9" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="715">
-        <v>8</v>
+      <c r="B10" s="714">
+        <v>6</v>
       </c>
       <c r="C10" s="615" t="s">
         <v>2009</v>
       </c>
       <c r="D10" s="615" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="E10" s="701" t="s">
-        <v>606</v>
+        <v>416</v>
       </c>
       <c r="F10" s="338" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G10" s="727" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G10" s="724" t="s">
         <v>2000</v>
       </c>
-      <c r="H10" s="716" t="s">
+      <c r="H10" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="715">
-        <v>9</v>
+      <c r="B11" s="714">
+        <v>13</v>
       </c>
       <c r="C11" s="615" t="s">
-        <v>2009</v>
+        <v>1968</v>
       </c>
       <c r="D11" s="615" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="E11" s="701" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="F11" s="338" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G11" s="727" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="716" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G11" s="724" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H11" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="715">
-        <v>10</v>
+      <c r="B12" s="714">
+        <v>14</v>
       </c>
       <c r="C12" s="615" t="s">
         <v>1968</v>
       </c>
       <c r="D12" s="615" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="E12" s="701" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F12" s="338" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G12" s="727" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G12" s="724" t="s">
         <v>2002</v>
       </c>
-      <c r="H12" s="716" t="s">
+      <c r="H12" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="715">
-        <v>11</v>
+      <c r="B13" s="714">
+        <v>12</v>
       </c>
       <c r="C13" s="615" t="s">
         <v>1968</v>
       </c>
       <c r="D13" s="615" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="E13" s="701" t="s">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="F13" s="338" t="s">
-        <v>1975</v>
-      </c>
-      <c r="G13" s="727" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G13" s="724" t="s">
         <v>2002</v>
       </c>
-      <c r="H13" s="716" t="s">
+      <c r="H13" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="715">
-        <v>12</v>
+      <c r="B14" s="714">
+        <v>15</v>
       </c>
       <c r="C14" s="615" t="s">
         <v>1968</v>
       </c>
       <c r="D14" s="615" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E14" s="701" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F14" s="338" t="s">
-        <v>1979</v>
-      </c>
-      <c r="G14" s="727" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G14" s="724" t="s">
         <v>2002</v>
       </c>
-      <c r="H14" s="716" t="s">
+      <c r="H14" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="715">
-        <v>13</v>
+      <c r="B15" s="714">
+        <v>9</v>
       </c>
       <c r="C15" s="615" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="615" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E15" s="701" t="s">
+        <v>604</v>
+      </c>
+      <c r="F15" s="338" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G15" s="724" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="714">
+        <v>8</v>
+      </c>
+      <c r="C16" s="615" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="615" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E16" s="701" t="s">
+        <v>606</v>
+      </c>
+      <c r="F16" s="338" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G16" s="724" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="714">
+        <v>18</v>
+      </c>
+      <c r="C17" s="641" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D17" s="641" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E17" s="704" t="s">
+        <v>868</v>
+      </c>
+      <c r="F17" s="338" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G17" s="724" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H17" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="714">
+        <v>1</v>
+      </c>
+      <c r="C18" s="615" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D18" s="615" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E18" s="701" t="s">
+        <v>508</v>
+      </c>
+      <c r="F18" s="338" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G18" s="724" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H18" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="714">
+        <v>2</v>
+      </c>
+      <c r="C19" s="615" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="615" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E19" s="701" t="s">
+        <v>510</v>
+      </c>
+      <c r="F19" s="338" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G19" s="724" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H19" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="714">
+        <v>3</v>
+      </c>
+      <c r="C20" s="615" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D20" s="615" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E20" s="701" t="s">
+        <v>515</v>
+      </c>
+      <c r="F20" s="338" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G20" s="724" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H20" s="715" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="714">
+        <v>10</v>
+      </c>
+      <c r="C21" s="615" t="s">
         <v>1968</v>
       </c>
-      <c r="D15" s="615" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E15" s="701" t="s">
-        <v>562</v>
-      </c>
-      <c r="F15" s="338" t="s">
-        <v>1980</v>
-      </c>
-      <c r="G15" s="727" t="s">
+      <c r="D21" s="615" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E21" s="701" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="338" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G21" s="724" t="s">
         <v>2002</v>
       </c>
-      <c r="H15" s="716" t="s">
+      <c r="H21" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="715">
-        <v>14</v>
-      </c>
-      <c r="C16" s="615" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D16" s="615" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E16" s="701" t="s">
-        <v>564</v>
-      </c>
-      <c r="F16" s="338" t="s">
-        <v>1981</v>
-      </c>
-      <c r="G16" s="727" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H16" s="716" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="714">
+        <v>17</v>
+      </c>
+      <c r="C22" s="666" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="666" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E22" s="705" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F22" s="338" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G22" s="724" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H22" s="715" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="715">
-        <v>15</v>
-      </c>
-      <c r="C17" s="615" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D17" s="615" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E17" s="701" t="s">
-        <v>565</v>
-      </c>
-      <c r="F17" s="338" t="s">
-        <v>1982</v>
-      </c>
-      <c r="G17" s="727" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H17" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="715">
+    <row r="23" spans="2:8" ht="14.7" thickBot="1">
+      <c r="B23" s="716">
         <v>16</v>
       </c>
-      <c r="C18" s="709" t="s">
+      <c r="C23" s="729" t="s">
         <v>2007</v>
       </c>
-      <c r="D18" s="709" t="s">
+      <c r="D23" s="729" t="s">
         <v>1962</v>
       </c>
-      <c r="E18" s="705" t="s">
+      <c r="E23" s="730" t="s">
         <v>948</v>
       </c>
-      <c r="F18" s="338" t="s">
+      <c r="F23" s="717" t="s">
         <v>1988</v>
       </c>
-      <c r="G18" s="727" t="s">
+      <c r="G23" s="725" t="s">
         <v>2004</v>
       </c>
-      <c r="H18" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="715">
-        <v>17</v>
-      </c>
-      <c r="C19" s="666" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D19" s="666" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E19" s="705" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F19" s="338" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G19" s="727" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H19" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="715">
-        <v>18</v>
-      </c>
-      <c r="C20" s="641" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D20" s="641" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E20" s="704" t="s">
-        <v>868</v>
-      </c>
-      <c r="F20" s="338" t="s">
-        <v>1990</v>
-      </c>
-      <c r="G20" s="727" t="s">
-        <v>1999</v>
-      </c>
-      <c r="H20" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="715">
-        <v>19</v>
-      </c>
-      <c r="C21" s="641" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D21" s="641" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E21" s="704" t="s">
-        <v>836</v>
-      </c>
-      <c r="F21" s="338" t="s">
-        <v>1985</v>
-      </c>
-      <c r="G21" s="727" t="s">
-        <v>1999</v>
-      </c>
-      <c r="H21" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="715">
-        <v>20</v>
-      </c>
-      <c r="C22" s="639" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D22" s="639" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E22" s="704" t="s">
-        <v>839</v>
-      </c>
-      <c r="F22" s="338" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G22" s="727" t="s">
-        <v>1999</v>
-      </c>
-      <c r="H22" s="716" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="14.7" thickBot="1">
-      <c r="B23" s="717">
-        <v>21</v>
-      </c>
-      <c r="C23" s="718" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D23" s="718" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E23" s="719" t="s">
-        <v>838</v>
-      </c>
-      <c r="F23" s="720" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G23" s="728" t="s">
-        <v>1999</v>
-      </c>
-      <c r="H23" s="721" t="s">
+      <c r="H23" s="718" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="14.7" thickTop="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H23">
-    <sortCondition ref="C3:C23"/>
+    <sortCondition ref="F3:F23"/>
     <sortCondition ref="H3:H23"/>
     <sortCondition ref="D3:D23"/>
   </sortState>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E13">
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52570,15 +52570,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Meeting Document" ma:contentTypeID="0x010100424757986E2540868CAE723C1A3093F102008734F9328BB8F143AE595C29EA485745" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4864a6bc3eb27b41a58b12bb902c36e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9bc17653-fc4f-4043-ad3b-134743de0300" xmlns:ns3="b8fa3832-7152-4b4d-9878-0005b747858c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d0848ad5596edac8a44b2ab733ca78d" ns2:_="" ns3:_="">
     <xsd:import namespace="9bc17653-fc4f-4043-ad3b-134743de0300"/>
@@ -52918,6 +52909,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF74C82-7040-4BEA-BF1B-355C69582985}">
   <ds:schemaRefs>
@@ -52929,14 +52929,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAEF346-A6A2-4BE4-B818-DAF923EEF652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEFE0322-7171-4480-A55B-0DB20ACFA3DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52953,4 +52945,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAEF346-A6A2-4BE4-B818-DAF923EEF652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>